--- a/output/fit_clients/fit_round_152.xlsx
+++ b/output/fit_clients/fit_round_152.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2378026149.56433</v>
+        <v>2426221896.082262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09500276764638801</v>
+        <v>0.1102341334492323</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04104415988346423</v>
+        <v>0.03112360121779848</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1189013121.204265</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2598493875.2378</v>
+        <v>1979365421.37601</v>
       </c>
       <c r="F3" t="n">
-        <v>0.160162396103487</v>
+        <v>0.183568511011541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04792830911171011</v>
+        <v>0.04764059404219397</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1299247070.332561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3353357513.104529</v>
+        <v>4234267837.45806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1429361576639387</v>
+        <v>0.1158823615047516</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02918457237461798</v>
+        <v>0.02567096053070107</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1676678724.891255</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3750087522.208254</v>
+        <v>2772185527.105822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06904431087083504</v>
+        <v>0.09898770363713215</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04785645748347657</v>
+        <v>0.03404699650111517</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>62</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1875043781.302163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2235236367.281008</v>
+        <v>2617971116.719702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1379347013114801</v>
+        <v>0.1210003804113457</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04424447753816714</v>
+        <v>0.03886212971760555</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1117618187.738796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2558952421.971521</v>
+        <v>2872209945.137289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09909415033261687</v>
+        <v>0.0932945827862998</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03816066374110336</v>
+        <v>0.03597071427760771</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>44</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1279476218.349985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3934599665.948025</v>
+        <v>3506419104.539112</v>
       </c>
       <c r="F8" t="n">
-        <v>0.208250286118252</v>
+        <v>0.1962387409801397</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02044383623205179</v>
+        <v>0.02470017019789646</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>48</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1967299985.995852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2274317060.880487</v>
+        <v>1713174634.381777</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1622380975717801</v>
+        <v>0.1583333118237734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03509746577617438</v>
+        <v>0.03012971474654746</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1137158518.954507</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5363547889.831688</v>
+        <v>5775228869.69501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.164347507100467</v>
+        <v>0.1813763349860336</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03601168490205783</v>
+        <v>0.0485648503406124</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>64</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2681774072.363006</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4142601440.739831</v>
+        <v>2733296999.565926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1655595568515718</v>
+        <v>0.1416190591412265</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03725701078266508</v>
+        <v>0.0461937793023276</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2071300742.934918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3165675335.939891</v>
+        <v>2300540629.557361</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1599268751744397</v>
+        <v>0.1644350951658304</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03469525143532097</v>
+        <v>0.04564126195756824</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>53</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1582837701.126326</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4873342420.731141</v>
+        <v>3719221405.635175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07611618876406767</v>
+        <v>0.06431036990954248</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02934308538019825</v>
+        <v>0.0211580155687079</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2436671220.89619</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2406851833.933554</v>
+        <v>3340708045.196307</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1224728509314916</v>
+        <v>0.1721326956600181</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0382952080075943</v>
+        <v>0.03232753554593616</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>49</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1203425994.313333</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1487029360.3373</v>
+        <v>1557159424.787072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0898597554397179</v>
+        <v>0.08772691286436149</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03224275162454145</v>
+        <v>0.03926243675524462</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>743514762.6921088</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2370616339.531194</v>
+        <v>1908374236.490534</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1115725328600095</v>
+        <v>0.1008040897595887</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03218931900758713</v>
+        <v>0.03826433087334562</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1185308212.102126</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3703025359.945751</v>
+        <v>3454817989.251756</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1072067497724367</v>
+        <v>0.1548042851647032</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03290457752311049</v>
+        <v>0.05317971392755031</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1851512729.164927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3747329393.849571</v>
+        <v>3648492365.489909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1532497147222595</v>
+        <v>0.1703504030052538</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02233177037717917</v>
+        <v>0.03344126154809983</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1873664673.09554</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1377994127.426712</v>
+        <v>888556115.0410881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1325053055623904</v>
+        <v>0.1226751795214444</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02286191271400398</v>
+        <v>0.02669311549076034</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>688997184.9220408</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2584128816.932126</v>
+        <v>2167398237.775159</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1554311692786065</v>
+        <v>0.1008885208219083</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02139952593684926</v>
+        <v>0.02187567629733806</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1292064372.541819</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2677377888.851399</v>
+        <v>2362099679.385502</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09795298361639036</v>
+        <v>0.09352015812347204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02971918919763924</v>
+        <v>0.03912799397822316</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1338688915.529615</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3107950994.816115</v>
+        <v>3020243523.423615</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1029336234020849</v>
+        <v>0.1235345127101854</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03864596645691497</v>
+        <v>0.03861627989226978</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1553975552.440328</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1556572931.039373</v>
+        <v>1183073195.243305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.141304350567065</v>
+        <v>0.1697816941149296</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05126158759019574</v>
+        <v>0.03385338541426409</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>778286441.8830477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2671139871.564616</v>
+        <v>3361505992.228637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1376162268904461</v>
+        <v>0.123238958630954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03608897571574132</v>
+        <v>0.03721228051086851</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1335569993.078981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1164514168.531328</v>
+        <v>1122966036.477463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1109806473733778</v>
+        <v>0.1063429518895077</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0219136172681836</v>
+        <v>0.02756246819942906</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>582257110.359905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1414683880.449445</v>
+        <v>1040230512.165783</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1227607568788082</v>
+        <v>0.09110214363516929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02358514444874273</v>
+        <v>0.03223195391339922</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>707342013.8131579</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4501826453.0815</v>
+        <v>4424221080.972116</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1260563171736834</v>
+        <v>0.09785962204741222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01837438793202549</v>
+        <v>0.01701985242248962</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>35</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2250913211.705139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3524541028.727882</v>
+        <v>3855995234.9902</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1177755698776917</v>
+        <v>0.1233535317519445</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0307342623518151</v>
+        <v>0.03143484645414572</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1762270571.084451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5274365526.643857</v>
+        <v>5687785602.857639</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1090155570668793</v>
+        <v>0.1084598818499531</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0282004907771425</v>
+        <v>0.0299140253327495</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2637182691.814327</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1927165457.270657</v>
+        <v>2341385109.084057</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1208526903583075</v>
+        <v>0.09995235019437425</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02667017144480813</v>
+        <v>0.03518932433950802</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>963582757.741279</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>915351032.6623884</v>
+        <v>1368960073.247373</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09615967282399292</v>
+        <v>0.08659127065546679</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03516633721514595</v>
+        <v>0.04100901084231037</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>457675534.7499502</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1460111995.413018</v>
+        <v>1271686993.972108</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1045369764980275</v>
+        <v>0.1133433070881062</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03736909650846478</v>
+        <v>0.0306041178851256</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>730056057.7359147</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2220925972.4996</v>
+        <v>2539122409.785</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1453921109935592</v>
+        <v>0.1793725784140955</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05240960203098578</v>
+        <v>0.04370810760477816</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>46</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1110463048.189105</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1355668621.452409</v>
+        <v>1157345509.044207</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1180103135017863</v>
+        <v>0.08303066353710042</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0189160034595546</v>
+        <v>0.02502315130570489</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>677834290.1964332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>822753591.4219285</v>
+        <v>1248223160.33589</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1162140428339695</v>
+        <v>0.07525803537884378</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03957152652805932</v>
+        <v>0.02909652805016754</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>411376853.1367109</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2723277889.114264</v>
+        <v>2040829718.717006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1763054514880093</v>
+        <v>0.1372691764886163</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01895774215922609</v>
+        <v>0.02128128743787358</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1361638948.591128</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2036579697.918758</v>
+        <v>1798627291.012444</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09852792286540069</v>
+        <v>0.1044618789246084</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03262713428407108</v>
+        <v>0.0380633609442107</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>41</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1018289881.240377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1970911996.340312</v>
+        <v>1947314766.072384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.106319207925026</v>
+        <v>0.1032810548882091</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0299931700618414</v>
+        <v>0.03548325978851716</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>985455980.8710762</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2067115790.951567</v>
+        <v>2035994923.757292</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1912442207202341</v>
+        <v>0.1812738459240449</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02354244005720223</v>
+        <v>0.02234983355579586</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1033557879.782635</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1364221993.757581</v>
+        <v>1408650634.132265</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1532491103850465</v>
+        <v>0.1474424968447864</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06034352177874372</v>
+        <v>0.03714948286353083</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>682110997.0327511</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2247015684.703329</v>
+        <v>1830068258.71997</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1297248947203258</v>
+        <v>0.163259401970326</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02998303688036855</v>
+        <v>0.03821715469448345</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1123507892.338534</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3297209375.832757</v>
+        <v>3678417171.774069</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1123229521329731</v>
+        <v>0.0814782455355358</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03654871967333929</v>
+        <v>0.03465575995581115</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1648604668.767454</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2939056771.530601</v>
+        <v>1923806247.81205</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1623433899301743</v>
+        <v>0.2043355664578632</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01582448660826132</v>
+        <v>0.02394318923039027</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>52</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1469528390.225293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1637428207.331902</v>
+        <v>2034591788.438032</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08141856663184507</v>
+        <v>0.07299966605756524</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03020364351834766</v>
+        <v>0.02566517754163016</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>818714137.6186533</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2236735336.285484</v>
+        <v>2119498556.124799</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1378924962864111</v>
+        <v>0.1352030732694193</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05434284657690639</v>
+        <v>0.05429595378974938</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1118367682.808594</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4290767250.859993</v>
+        <v>3659494982.106225</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1451901745998051</v>
+        <v>0.1703986441240781</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04151465206740061</v>
+        <v>0.04487175684382904</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>54</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2145383611.607703</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3996095850.50674</v>
+        <v>4392129830.130736</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1578419271054498</v>
+        <v>0.1445881391026763</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0411500693277649</v>
+        <v>0.05438779146009975</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1998047924.160695</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3515507259.438696</v>
+        <v>3176559832.338648</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08949532787726533</v>
+        <v>0.07711433392015642</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03626331743339523</v>
+        <v>0.03724316742458045</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1757753692.207484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1474229957.466901</v>
+        <v>1809894222.307842</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1644605485829203</v>
+        <v>0.1463536222345933</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04271054689643416</v>
+        <v>0.02696736983894627</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>737115014.7395108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3603652660.767698</v>
+        <v>4143383060.627603</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1470980555572625</v>
+        <v>0.1385243508768708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04115938240544748</v>
+        <v>0.05195288011141816</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>52</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1801826347.250153</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1018574705.850824</v>
+        <v>1463483889.470069</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1319650654656379</v>
+        <v>0.1541006974600052</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05053093785342059</v>
+        <v>0.04759201468817021</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>509287433.8486211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3378724128.446064</v>
+        <v>4670350390.925764</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1065775708107995</v>
+        <v>0.09566787839403366</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05153583393435265</v>
+        <v>0.05781983558003666</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>63</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1689362157.235837</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3432245641.524611</v>
+        <v>3367002751.941773</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1521649783499051</v>
+        <v>0.1790062687052447</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02825795880680218</v>
+        <v>0.02480590623379339</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>43</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1716122823.345731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3825668103.545877</v>
+        <v>4505385309.410338</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1687562969775369</v>
+        <v>0.1444981149100523</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03414526603615021</v>
+        <v>0.05034327285120963</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1912834102.117364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4907448486.003598</v>
+        <v>3678720574.966666</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1890410382678183</v>
+        <v>0.18843514309285</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02303921643688438</v>
+        <v>0.02519011601317382</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>43</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2453724257.906151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1865519532.836184</v>
+        <v>1763026057.935527</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1442290893631007</v>
+        <v>0.1360211812315172</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03768088689551421</v>
+        <v>0.03610598328948832</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>932759754.4569905</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4240246374.511131</v>
+        <v>2860641050.279643</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1378088178227719</v>
+        <v>0.1304754878702867</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02266484464823858</v>
+        <v>0.02547348983599813</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>48</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2120123295.761483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1241219050.90359</v>
+        <v>1258371414.846161</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1862855128001444</v>
+        <v>0.1956783328889861</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02573801844247755</v>
+        <v>0.03909447572514204</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>620609580.1548784</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3418907350.58718</v>
+        <v>5414045728.856987</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09814231156714998</v>
+        <v>0.08352396786455664</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03564331586276547</v>
+        <v>0.03674216710520437</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>43</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1709453679.236154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3282507928.839318</v>
+        <v>3499347270.168602</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1369462481506169</v>
+        <v>0.1973964726711645</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02530169554960029</v>
+        <v>0.02550425360388891</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1641254064.369817</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2262761284.26905</v>
+        <v>2982751667.69498</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1473344332069005</v>
+        <v>0.1140286030310599</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0289045798697369</v>
+        <v>0.02543689309735974</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1131380692.086865</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1790907893.339941</v>
+        <v>1418206457.097449</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1222343253330973</v>
+        <v>0.1562965404104399</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04484688893473299</v>
+        <v>0.03885244158437526</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>895453973.3490363</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4394604549.73305</v>
+        <v>3729399757.74438</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07727095486929816</v>
+        <v>0.07015028522803717</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04335495627784577</v>
+        <v>0.0368238693727244</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2197302319.598583</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4616525048.494633</v>
+        <v>4812199493.280198</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1459953946439232</v>
+        <v>0.1680711755908631</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02769162422460587</v>
+        <v>0.02674213583163764</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>47</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2308262603.434307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4087306489.819637</v>
+        <v>3775138061.172253</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1461161634141502</v>
+        <v>0.1644855308404201</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02432552223723764</v>
+        <v>0.02482850473046591</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>54</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2043653258.237725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4989338079.929882</v>
+        <v>4830457048.787317</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1379616482293573</v>
+        <v>0.1466722987631916</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04438138589353585</v>
+        <v>0.03624980244524344</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>44</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2494669066.501705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3347218596.578996</v>
+        <v>2814500845.185918</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06266459029073441</v>
+        <v>0.06565112730527652</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04140144344773</v>
+        <v>0.03726496964402214</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>49</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1673609287.149206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4336484137.442403</v>
+        <v>4506374311.254365</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1234005134165061</v>
+        <v>0.1172985150006723</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04738686562784684</v>
+        <v>0.05012273774567861</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>48</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2168242084.861449</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2028363729.857385</v>
+        <v>1763228443.460157</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1168094075898383</v>
+        <v>0.1110123701414445</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04551294496755472</v>
+        <v>0.0497329934526503</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1014181873.513914</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2815306095.264992</v>
+        <v>3182405509.455929</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09870831896747476</v>
+        <v>0.09601789371340322</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04445979721186593</v>
+        <v>0.04882734939499577</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>43</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1407653012.531472</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4216917891.401289</v>
+        <v>3894775413.445463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1284920328648121</v>
+        <v>0.1228484318797044</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03269395425459742</v>
+        <v>0.02662724959052431</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>55</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2108458992.907152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1597904547.68746</v>
+        <v>2082769126.962769</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08077111342667058</v>
+        <v>0.09999755071829124</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04857438717357557</v>
+        <v>0.04803291098850825</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>798952284.9687401</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2357527277.330598</v>
+        <v>2846022692.918619</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1059203851999194</v>
+        <v>0.1063419902610347</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04065158918179375</v>
+        <v>0.04377472873531756</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1178763693.417456</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3086878987.725715</v>
+        <v>3182436886.464412</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1726292432902918</v>
+        <v>0.1380638220820825</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0236959077878981</v>
+        <v>0.02933259821954322</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1543439551.67775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2082015578.490133</v>
+        <v>2303129207.889082</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1601733344173233</v>
+        <v>0.1051954737094505</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02586557413344888</v>
+        <v>0.03257683514839745</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1041007745.701677</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3595649687.749545</v>
+        <v>5280968801.519748</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07930298448789228</v>
+        <v>0.1034717768675455</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03337807345355952</v>
+        <v>0.03227116900167219</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1797824811.611789</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2072136141.620105</v>
+        <v>1864701929.174691</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1449284564070728</v>
+        <v>0.1545953742050259</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02233357915194673</v>
+        <v>0.01971464526697665</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1036068142.922394</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4274333049.101224</v>
+        <v>4015115753.823924</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1194643518174792</v>
+        <v>0.08883853425666446</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04075299796372696</v>
+        <v>0.04383475681214857</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>53</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2137166470.626545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1420374978.807651</v>
+        <v>1874840050.860653</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1315748812098692</v>
+        <v>0.1394691194713514</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03265872128693978</v>
+        <v>0.03427352699704282</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>710187509.6618725</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5293289644.950611</v>
+        <v>5621019029.058352</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07322676418849566</v>
+        <v>0.1020296455579394</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02824249802928164</v>
+        <v>0.03506238264469092</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>32</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2646644886.235057</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3469834070.313257</v>
+        <v>4457763204.916116</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1014747914167436</v>
+        <v>0.1200578997571972</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02497426365265418</v>
+        <v>0.02782043014114194</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1734916978.653792</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4290167835.203207</v>
+        <v>5406308438.940862</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1842719197992579</v>
+        <v>0.1347766424847917</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02855326417815135</v>
+        <v>0.02013272682471289</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2145083941.125314</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1715557080.706393</v>
+        <v>2090132085.553021</v>
       </c>
       <c r="F83" t="n">
-        <v>0.13422950911393</v>
+        <v>0.1377813066622708</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03763068594983583</v>
+        <v>0.04446783449260325</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>857778490.2416925</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2280275224.393962</v>
+        <v>1645919677.133596</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09401400403862564</v>
+        <v>0.1094482070539175</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04298227048378434</v>
+        <v>0.05005617207358446</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1140137576.12281</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3685968985.556774</v>
+        <v>3547219006.057764</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1323164551114316</v>
+        <v>0.1401878846053363</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04237368572424463</v>
+        <v>0.03416919798172997</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>57</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1842984628.610229</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2034132576.896747</v>
+        <v>2649612016.981355</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1671505914334535</v>
+        <v>0.1595751920567786</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0252755800226399</v>
+        <v>0.02456180515801352</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1017066320.77992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>989416859.3135256</v>
+        <v>1402411483.341164</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1499032840274858</v>
+        <v>0.1374440476706285</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03613235972384253</v>
+        <v>0.04383803042203444</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>494708431.233318</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2758145816.330113</v>
+        <v>3012295188.363417</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1175213575596807</v>
+        <v>0.1163932267413894</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0395057507936077</v>
+        <v>0.03576285898884347</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>60</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1379072914.671837</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2593559688.887648</v>
+        <v>3388719881.916928</v>
       </c>
       <c r="F89" t="n">
-        <v>0.129969283122481</v>
+        <v>0.1002860892276383</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02548625788259528</v>
+        <v>0.03950824357357323</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1296779912.310604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2100979337.198843</v>
+        <v>1585280948.051108</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09005330301401464</v>
+        <v>0.1087114335828966</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05489877733279612</v>
+        <v>0.04530275681367385</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1050489757.273941</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1740218701.301859</v>
+        <v>2010771452.414258</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1932620861562278</v>
+        <v>0.1961740385137801</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05681419499575109</v>
+        <v>0.05649355284867986</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>870109357.5227994</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2913168338.484042</v>
+        <v>2706754664.319589</v>
       </c>
       <c r="F92" t="n">
-        <v>0.105017747424711</v>
+        <v>0.08322926433629568</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04005528226195326</v>
+        <v>0.03968682123083137</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>36</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1456584184.373367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3551488702.696788</v>
+        <v>4411542953.22348</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1376694197755589</v>
+        <v>0.09893118652517099</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05461326824524333</v>
+        <v>0.03509594525261613</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1775744380.933828</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1994235519.184587</v>
+        <v>1930678601.454053</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1570964961422778</v>
+        <v>0.1154561916800624</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03231557533838701</v>
+        <v>0.03686878093610571</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>997117757.2120198</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3229774368.184704</v>
+        <v>2448521259.866326</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1349738246348877</v>
+        <v>0.1158644620245348</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04759446085513714</v>
+        <v>0.0342715401544682</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>36</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1614887167.06065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2336592741.60931</v>
+        <v>2349819212.39216</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1414493330981341</v>
+        <v>0.09757399542352492</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03447954026105073</v>
+        <v>0.04290636585099916</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1168296321.79352</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4273286320.360777</v>
+        <v>4914593441.947439</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1738631882981766</v>
+        <v>0.1537271104456411</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02521376952322242</v>
+        <v>0.0264878463895626</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>51</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2136643238.501728</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3735213083.968934</v>
+        <v>3053445892.455766</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126392988583767</v>
+        <v>0.08527470643004192</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0206573763794495</v>
+        <v>0.02226384751844452</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>40</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1867606576.488175</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2836194256.939605</v>
+        <v>3324254441.756752</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1104039868056099</v>
+        <v>0.1252482293998033</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02665188745575017</v>
+        <v>0.02928424870547897</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>48</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1418097102.52199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3186588785.509823</v>
+        <v>3048990848.545978</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1531103104658705</v>
+        <v>0.1208650177784374</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02329813245601862</v>
+        <v>0.02618435025278113</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>46</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1593294398.468089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2265973057.306787</v>
+        <v>2177859033.861144</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2194317934080656</v>
+        <v>0.1560893044567325</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03847241732409077</v>
+        <v>0.04208265535630212</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>63</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1132986520.671042</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_152.xlsx
+++ b/output/fit_clients/fit_round_152.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2426221896.082262</v>
+        <v>2047359640.145187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1102341334492323</v>
+        <v>0.09582358947171819</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03112360121779848</v>
+        <v>0.02967687296125159</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1979365421.37601</v>
+        <v>2481997151.622618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.183568511011541</v>
+        <v>0.1273321843901971</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04764059404219397</v>
+        <v>0.03554278586158002</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4234267837.45806</v>
+        <v>3682948010.591444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1158823615047516</v>
+        <v>0.1161733306429051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02567096053070107</v>
+        <v>0.02592185907253251</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2772185527.105822</v>
+        <v>2821504563.836581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09898770363713215</v>
+        <v>0.07050196159790335</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03404699650111517</v>
+        <v>0.03165607088024961</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2617971116.719702</v>
+        <v>2179904748.297732</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1210003804113457</v>
+        <v>0.09348236387468713</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03886212971760555</v>
+        <v>0.05302425679968382</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2872209945.137289</v>
+        <v>3145436496.502331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0932945827862998</v>
+        <v>0.0771673290388586</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03597071427760771</v>
+        <v>0.03999285193777545</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3506419104.539112</v>
+        <v>3335134052.840531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1962387409801397</v>
+        <v>0.1766360980583009</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02470017019789646</v>
+        <v>0.02151486306869062</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1713174634.381777</v>
+        <v>1708857563.763961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1583333118237734</v>
+        <v>0.1626016901402731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03012971474654746</v>
+        <v>0.0269350114754236</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5775228869.69501</v>
+        <v>5925232438.739491</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1813763349860336</v>
+        <v>0.1660435429988294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0485648503406124</v>
+        <v>0.03624768543593986</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2733296999.565926</v>
+        <v>3072679591.867636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1416190591412265</v>
+        <v>0.1320373109656416</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0461937793023276</v>
+        <v>0.04578664179720261</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2300540629.557361</v>
+        <v>2315659592.812448</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1644350951658304</v>
+        <v>0.1903555099545943</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04564126195756824</v>
+        <v>0.0448092727827221</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3719221405.635175</v>
+        <v>4375446934.482703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06431036990954248</v>
+        <v>0.09468621538032485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0211580155687079</v>
+        <v>0.02845338596378386</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3340708045.196307</v>
+        <v>2406275436.379803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1721326956600181</v>
+        <v>0.1289403846159939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03232753554593616</v>
+        <v>0.02788298859451584</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1557159424.787072</v>
+        <v>1315840271.337593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08772691286436149</v>
+        <v>0.09674352640912677</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03926243675524462</v>
+        <v>0.0419423542152732</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1908374236.490534</v>
+        <v>2335403184.410082</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008040897595887</v>
+        <v>0.07538381515673745</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03826433087334562</v>
+        <v>0.05175930288892131</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3454817989.251756</v>
+        <v>3904798312.527543</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1548042851647032</v>
+        <v>0.1411605135617348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05317971392755031</v>
+        <v>0.05077035497300861</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3648492365.489909</v>
+        <v>3852085032.866802</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1703504030052538</v>
+        <v>0.1516306976102164</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03344126154809983</v>
+        <v>0.03222734471781948</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>888556115.0410881</v>
+        <v>1194019145.557403</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1226751795214444</v>
+        <v>0.1373774273296013</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02669311549076034</v>
+        <v>0.02627299411543632</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2167398237.775159</v>
+        <v>1998773627.049012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1008885208219083</v>
+        <v>0.1278649337788756</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02187567629733806</v>
+        <v>0.01961578484493897</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2362099679.385502</v>
+        <v>2626722302.094171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09352015812347204</v>
+        <v>0.07272759320624307</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03912799397822316</v>
+        <v>0.03662922490253701</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3020243523.423615</v>
+        <v>3487542079.496789</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1235345127101854</v>
+        <v>0.08773293696188582</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03861627989226978</v>
+        <v>0.04991468976947066</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1183073195.243305</v>
+        <v>1003863106.612712</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1697816941149296</v>
+        <v>0.131734826908169</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03385338541426409</v>
+        <v>0.04320733708058504</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3361505992.228637</v>
+        <v>3141372661.779107</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123238958630954</v>
+        <v>0.1201633488193029</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03721228051086851</v>
+        <v>0.03704059610883525</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1122966036.477463</v>
+        <v>920861112.3253599</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1063429518895077</v>
+        <v>0.1111753518627015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02756246819942906</v>
+        <v>0.02885949183532163</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1040230512.165783</v>
+        <v>1351952078.164377</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09110214363516929</v>
+        <v>0.09897712319585468</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03223195391339922</v>
+        <v>0.03173032790902782</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4424221080.972116</v>
+        <v>3672268176.911942</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09785962204741222</v>
+        <v>0.1089582555931873</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01701985242248962</v>
+        <v>0.01979041684373324</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3855995234.9902</v>
+        <v>2793856613.422943</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1233535317519445</v>
+        <v>0.1137665120147085</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03143484645414572</v>
+        <v>0.03864936172547415</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5687785602.857639</v>
+        <v>4938829555.12604</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1084598818499531</v>
+        <v>0.1229424171844667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0299140253327495</v>
+        <v>0.02922737644727135</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2341385109.084057</v>
+        <v>1836477763.312541</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09995235019437425</v>
+        <v>0.1269804645215999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03518932433950802</v>
+        <v>0.03377555955670337</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1368960073.247373</v>
+        <v>1058690466.124877</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08659127065546679</v>
+        <v>0.1029570950053116</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04100901084231037</v>
+        <v>0.03887257845328066</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1271686993.972108</v>
+        <v>1457233334.151421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1133433070881062</v>
+        <v>0.1208643570404719</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0306041178851256</v>
+        <v>0.03719393646109799</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2539122409.785</v>
+        <v>2326573152.40803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1793725784140955</v>
+        <v>0.1440538721211764</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04370810760477816</v>
+        <v>0.05062720719346589</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1157345509.044207</v>
+        <v>1322385414.005197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08303066353710042</v>
+        <v>0.09114015303280501</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02502315130570489</v>
+        <v>0.02231645536890146</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1248223160.33589</v>
+        <v>922629575.6408129</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07525803537884378</v>
+        <v>0.07878979655038518</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02909652805016754</v>
+        <v>0.0416298426257611</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2040829718.717006</v>
+        <v>2942538531.266711</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1372691764886163</v>
+        <v>0.1787508194493038</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02128128743787358</v>
+        <v>0.02470563757079202</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1798627291.012444</v>
+        <v>2317474614.482097</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1044618789246084</v>
+        <v>0.09677564047514227</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0380633609442107</v>
+        <v>0.02752486608125318</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1947314766.072384</v>
+        <v>1881414406.541595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1032810548882091</v>
+        <v>0.1200547058781192</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03548325978851716</v>
+        <v>0.03089778478588961</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2035994923.757292</v>
+        <v>1558024761.637577</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1812738459240449</v>
+        <v>0.1766316660799844</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02234983355579586</v>
+        <v>0.02548566132594769</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1408650634.132265</v>
+        <v>1219019401.286109</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1474424968447864</v>
+        <v>0.1613241283681152</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03714948286353083</v>
+        <v>0.05230463754590241</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1830068258.71997</v>
+        <v>1851559798.708237</v>
       </c>
       <c r="F41" t="n">
-        <v>0.163259401970326</v>
+        <v>0.1565368571113206</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03821715469448345</v>
+        <v>0.02991170795200469</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3678417171.774069</v>
+        <v>3570038544.029979</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0814782455355358</v>
+        <v>0.08552773526277646</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03465575995581115</v>
+        <v>0.04615037103187321</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1923806247.81205</v>
+        <v>2541069032.117045</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2043355664578632</v>
+        <v>0.1988689602342822</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02394318923039027</v>
+        <v>0.02237349172760385</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2034591788.438032</v>
+        <v>1755562515.481455</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07299966605756524</v>
+        <v>0.1016553430794274</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02566517754163016</v>
+        <v>0.02673124138923183</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2119498556.124799</v>
+        <v>1766630141.889259</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1352030732694193</v>
+        <v>0.1298161284287204</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05429595378974938</v>
+        <v>0.04611287487245929</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3659494982.106225</v>
+        <v>5526411339.209794</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1703986441240781</v>
+        <v>0.1503746273403479</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04487175684382904</v>
+        <v>0.0459968874950149</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4392129830.130736</v>
+        <v>3181964603.435839</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1445881391026763</v>
+        <v>0.1793367169325634</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05438779146009975</v>
+        <v>0.05971589695728729</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3176559832.338648</v>
+        <v>2921441612.584942</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07711433392015642</v>
+        <v>0.08314597426058137</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03724316742458045</v>
+        <v>0.03567878696534994</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1809894222.307842</v>
+        <v>1291001931.911896</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1463536222345933</v>
+        <v>0.1719963476829345</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02696736983894627</v>
+        <v>0.0419709818547952</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4143383060.627603</v>
+        <v>4139298290.493446</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1385243508768708</v>
+        <v>0.1234071627699444</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05195288011141816</v>
+        <v>0.04665150043149502</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1463483889.470069</v>
+        <v>1369416214.019001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1541006974600052</v>
+        <v>0.1385663033439983</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04759201468817021</v>
+        <v>0.03650220426872974</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4670350390.925764</v>
+        <v>3691476585.720108</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09566787839403366</v>
+        <v>0.123820594786011</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05781983558003666</v>
+        <v>0.04010000667420914</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3367002751.941773</v>
+        <v>2498519728.476416</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1790062687052447</v>
+        <v>0.1763298833707806</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02480590623379339</v>
+        <v>0.02552207040948842</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4505385309.410338</v>
+        <v>4719538103.892722</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1444981149100523</v>
+        <v>0.1572939435386204</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05034327285120963</v>
+        <v>0.03384864965617646</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3678720574.966666</v>
+        <v>4294467281.207615</v>
       </c>
       <c r="F55" t="n">
-        <v>0.18843514309285</v>
+        <v>0.194513429414313</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02519011601317382</v>
+        <v>0.03167165371254582</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1763026057.935527</v>
+        <v>1292029677.469076</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1360211812315172</v>
+        <v>0.1305987945317107</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03610598328948832</v>
+        <v>0.05833632797235387</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2860641050.279643</v>
+        <v>3863960800.52496</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1304754878702867</v>
+        <v>0.1164574261347269</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02547348983599813</v>
+        <v>0.01991190959756442</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1258371414.846161</v>
+        <v>1756923528.697066</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1956783328889861</v>
+        <v>0.1530489623604851</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03909447572514204</v>
+        <v>0.03939579091520633</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5414045728.856987</v>
+        <v>3735799161.221262</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08352396786455664</v>
+        <v>0.1017903929829454</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03674216710520437</v>
+        <v>0.04354755924298542</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3499347270.168602</v>
+        <v>2559987497.508357</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1973964726711645</v>
+        <v>0.1739022036253167</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02550425360388891</v>
+        <v>0.02257766083453357</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2982751667.69498</v>
+        <v>2642162118.109567</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1140286030310599</v>
+        <v>0.1781945833031316</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02543689309735974</v>
+        <v>0.02897128760690774</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1418206457.097449</v>
+        <v>1285546588.50067</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1562965404104399</v>
+        <v>0.1931651150151633</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03885244158437526</v>
+        <v>0.03456754213053371</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3729399757.74438</v>
+        <v>4875921225.44028</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07015028522803717</v>
+        <v>0.09351528427050232</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0368238693727244</v>
+        <v>0.04482506794396482</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4812199493.280198</v>
+        <v>5358864372.550569</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1680711755908631</v>
+        <v>0.1228420656717037</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02674213583163764</v>
+        <v>0.02936085812180125</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3775138061.172253</v>
+        <v>5938494042.738256</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1644855308404201</v>
+        <v>0.1303886000563974</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02482850473046591</v>
+        <v>0.02278395049386159</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4830457048.787317</v>
+        <v>4290125509.098381</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1466722987631916</v>
+        <v>0.1487850004896376</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03624980244524344</v>
+        <v>0.03806641046263696</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2814500845.185918</v>
+        <v>2917590218.714211</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06565112730527652</v>
+        <v>0.06850221840473195</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03726496964402214</v>
+        <v>0.03886214056136659</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4506374311.254365</v>
+        <v>5212226293.650769</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1172985150006723</v>
+        <v>0.1524378585333498</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05012273774567861</v>
+        <v>0.03918849252052507</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1763228443.460157</v>
+        <v>2313046132.884199</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1110123701414445</v>
+        <v>0.1476312861515258</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0497329934526503</v>
+        <v>0.0494103403170508</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3182405509.455929</v>
+        <v>2337539689.042381</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09601789371340322</v>
+        <v>0.07324668691430866</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04882734939499577</v>
+        <v>0.03250618242982282</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3894775413.445463</v>
+        <v>4734158036.192715</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1228484318797044</v>
+        <v>0.129970426868384</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02662724959052431</v>
+        <v>0.02274207450761206</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2082769126.962769</v>
+        <v>1583549062.419506</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09999755071829124</v>
+        <v>0.1035229061476683</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04803291098850825</v>
+        <v>0.05299702702901385</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2846022692.918619</v>
+        <v>2482217043.472116</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1063419902610347</v>
+        <v>0.08936241038637405</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04377472873531756</v>
+        <v>0.03645168897192495</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3182436886.464412</v>
+        <v>2642462823.80753</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1380638220820825</v>
+        <v>0.1498347518329681</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02933259821954322</v>
+        <v>0.02783005586475457</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2303129207.889082</v>
+        <v>2241832826.177927</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1051954737094505</v>
+        <v>0.125049215277592</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03257683514839745</v>
+        <v>0.03796622735677676</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5280968801.519748</v>
+        <v>3354301719.604979</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1034717768675455</v>
+        <v>0.08034958158166181</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03227116900167219</v>
+        <v>0.02363561973620055</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1864701929.174691</v>
+        <v>1686313896.802713</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1545953742050259</v>
+        <v>0.1361957410598124</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01971464526697665</v>
+        <v>0.02699026621280023</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4015115753.823924</v>
+        <v>3848209193.291411</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08883853425666446</v>
+        <v>0.1052034295447192</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04383475681214857</v>
+        <v>0.04293155186989243</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1874840050.860653</v>
+        <v>1161560960.438159</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1394691194713514</v>
+        <v>0.1473474343479012</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03427352699704282</v>
+        <v>0.03573996378265222</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5621019029.058352</v>
+        <v>4656964723.346812</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020296455579394</v>
+        <v>0.09452953753116318</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03506238264469092</v>
+        <v>0.02526893743486383</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4457763204.916116</v>
+        <v>3688728481.786711</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1200578997571972</v>
+        <v>0.1262543308345184</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02782043014114194</v>
+        <v>0.0288702906894121</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5406308438.940862</v>
+        <v>4201824556.302182</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1347766424847917</v>
+        <v>0.1915949375060673</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02013272682471289</v>
+        <v>0.02733084983791333</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2090132085.553021</v>
+        <v>2274765471.375649</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1377813066622708</v>
+        <v>0.1019251004405232</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04446783449260325</v>
+        <v>0.03526427766118193</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1645919677.133596</v>
+        <v>1806495631.032598</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094482070539175</v>
+        <v>0.08021997287384666</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05005617207358446</v>
+        <v>0.03458403713846935</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3547219006.057764</v>
+        <v>2784528375.148954</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1401878846053363</v>
+        <v>0.1457889738973507</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03416919798172997</v>
+        <v>0.04427526244693009</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2649612016.981355</v>
+        <v>2431617427.112903</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1595751920567786</v>
+        <v>0.1618381355897296</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02456180515801352</v>
+        <v>0.01658053860894215</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1402411483.341164</v>
+        <v>1404048469.269823</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1374440476706285</v>
+        <v>0.1633820847783691</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04383803042203444</v>
+        <v>0.02797721206730971</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3012295188.363417</v>
+        <v>3552175304.518869</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1163932267413894</v>
+        <v>0.1238186560516296</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03576285898884347</v>
+        <v>0.03522023428941201</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3388719881.916928</v>
+        <v>2651463935.696564</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002860892276383</v>
+        <v>0.160059920548474</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03950824357357323</v>
+        <v>0.02665765610518101</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1585280948.051108</v>
+        <v>2042779996.716099</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1087114335828966</v>
+        <v>0.1067212242034807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04530275681367385</v>
+        <v>0.03525055466765111</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2010771452.414258</v>
+        <v>1483439056.943067</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1961740385137801</v>
+        <v>0.1226545879633119</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05649355284867986</v>
+        <v>0.04363913192918027</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2706754664.319589</v>
+        <v>2180221291.107745</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08322926433629568</v>
+        <v>0.07091817016724997</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03968682123083137</v>
+        <v>0.042475903086622</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4411542953.22348</v>
+        <v>3085421640.648359</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09893118652517099</v>
+        <v>0.1371317355989358</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03509594525261613</v>
+        <v>0.04722532812857506</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1930678601.454053</v>
+        <v>2335069772.803612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1154561916800624</v>
+        <v>0.1493488224995709</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03686878093610571</v>
+        <v>0.03083610123233354</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2448521259.866326</v>
+        <v>3053205838.937121</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1158644620245348</v>
+        <v>0.1275490859507526</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0342715401544682</v>
+        <v>0.05284692248594576</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2349819212.39216</v>
+        <v>1670472317.40978</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09757399542352492</v>
+        <v>0.1229174724577534</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04290636585099916</v>
+        <v>0.02877976573210407</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4914593441.947439</v>
+        <v>5351209642.816211</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1537271104456411</v>
+        <v>0.1236936431820461</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0264878463895626</v>
+        <v>0.02429778435682288</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3053445892.455766</v>
+        <v>2947249100.713297</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08527470643004192</v>
+        <v>0.1255465085441884</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02226384751844452</v>
+        <v>0.03218382438330514</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3324254441.756752</v>
+        <v>2160293092.747763</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1252482293998033</v>
+        <v>0.1210688389878461</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02928424870547897</v>
+        <v>0.03091777584757138</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3048990848.545978</v>
+        <v>3218942877.347921</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1208650177784374</v>
+        <v>0.1642151028451262</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02618435025278113</v>
+        <v>0.01898336113232123</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2177859033.861144</v>
+        <v>2525038456.201799</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1560893044567325</v>
+        <v>0.1867990929309744</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04208265535630212</v>
+        <v>0.05158991427785851</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_152.xlsx
+++ b/output/fit_clients/fit_round_152.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2047359640.145187</v>
+        <v>2040150618.320184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09582358947171819</v>
+        <v>0.08816241632488521</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02967687296125159</v>
+        <v>0.03420002415732529</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2481997151.622618</v>
+        <v>1727354178.323369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1273321843901971</v>
+        <v>0.1328270684146212</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03554278586158002</v>
+        <v>0.04561473794959152</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3682948010.591444</v>
+        <v>4449968357.875928</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1161733306429051</v>
+        <v>0.1599816715386903</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02592185907253251</v>
+        <v>0.03047827286157321</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>86</v>
+      </c>
+      <c r="J4" t="n">
+        <v>151</v>
+      </c>
+      <c r="K4" t="n">
+        <v>135.8791164703086</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2821504563.836581</v>
+        <v>3354511390.553758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07050196159790335</v>
+        <v>0.08791759888768028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03165607088024961</v>
+        <v>0.03758748261665364</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2179904748.297732</v>
+        <v>2609813344.491015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09348236387468713</v>
+        <v>0.1317494126403607</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05302425679968382</v>
+        <v>0.05620480028075805</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3145436496.502331</v>
+        <v>2978671744.666532</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0771673290388586</v>
+        <v>0.07593574737493711</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03999285193777545</v>
+        <v>0.04311235640610152</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3335134052.840531</v>
+        <v>3940787874.239987</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1766360980583009</v>
+        <v>0.1339443751103209</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02151486306869062</v>
+        <v>0.02282521056300541</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>152</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1708857563.763961</v>
+        <v>2035352118.063347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1626016901402731</v>
+        <v>0.1854558795870018</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0269350114754236</v>
+        <v>0.02534407465256112</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5925232438.739491</v>
+        <v>3812783830.471004</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1660435429988294</v>
+        <v>0.1888587222403844</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03624768543593986</v>
+        <v>0.053220304984364</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>140</v>
+      </c>
+      <c r="J10" t="n">
+        <v>151</v>
+      </c>
+      <c r="K10" t="n">
+        <v>135.1586963581238</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3072679591.867636</v>
+        <v>2955948094.233254</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1320373109656416</v>
+        <v>0.1457207233960845</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04578664179720261</v>
+        <v>0.03233347554016224</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2315659592.812448</v>
+        <v>2048205855.261077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1903555099545943</v>
+        <v>0.1866587880889074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0448092727827221</v>
+        <v>0.05138097886959445</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4375446934.482703</v>
+        <v>4649891093.524005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09468621538032485</v>
+        <v>0.09795611153248526</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02845338596378386</v>
+        <v>0.02225231833309948</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>73</v>
+      </c>
+      <c r="J13" t="n">
+        <v>152</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2406275436.379803</v>
+        <v>2945221529.834872</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1289403846159939</v>
+        <v>0.1451724375275601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02788298859451584</v>
+        <v>0.04034049278649029</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="n">
+        <v>71.79701182946016</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1315840271.337593</v>
+        <v>1339619080.628075</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09674352640912677</v>
+        <v>0.09046649250196685</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0419423542152732</v>
+        <v>0.03199689446553417</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2335403184.410082</v>
+        <v>2081462064.791328</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07538381515673745</v>
+        <v>0.1161366260222225</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05175930288892131</v>
+        <v>0.04281068668783371</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3904798312.527543</v>
+        <v>4059478268.677808</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1411605135617348</v>
+        <v>0.1121531122980244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05077035497300861</v>
+        <v>0.03765305684710285</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>73</v>
+      </c>
+      <c r="J17" t="n">
+        <v>152</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3852085032.866802</v>
+        <v>3346890513.511633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1516306976102164</v>
+        <v>0.1281138386676806</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03222734471781948</v>
+        <v>0.02662214014687877</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1194019145.557403</v>
+        <v>1161689510.160805</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1373774273296013</v>
+        <v>0.179847795757797</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02627299411543632</v>
+        <v>0.02064762012017229</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1998773627.049012</v>
+        <v>2601591957.950694</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1278649337788756</v>
+        <v>0.1520728399571476</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01961578484493897</v>
+        <v>0.0228503694504436</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2626722302.094171</v>
+        <v>1833717870.333852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07272759320624307</v>
+        <v>0.0758865666663411</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03662922490253701</v>
+        <v>0.03903331711138788</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3487542079.496789</v>
+        <v>3309884796.461092</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08773293696188582</v>
+        <v>0.124812354667335</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04991468976947066</v>
+        <v>0.04004745030310151</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1003863106.612712</v>
+        <v>1151529885.861389</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131734826908169</v>
+        <v>0.1591345339322652</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04320733708058504</v>
+        <v>0.03948770383065717</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3141372661.779107</v>
+        <v>3490299991.084756</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1201633488193029</v>
+        <v>0.09930673535171845</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03704059610883525</v>
+        <v>0.03483054651327092</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>151</v>
+      </c>
+      <c r="K24" t="n">
+        <v>93.70719423692994</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>920861112.3253599</v>
+        <v>1107367211.620516</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1111753518627015</v>
+        <v>0.1191856796282203</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02885949183532163</v>
+        <v>0.02131068394604056</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1351952078.164377</v>
+        <v>1296287958.405393</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09897712319585468</v>
+        <v>0.08876681622747172</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03173032790902782</v>
+        <v>0.03766405593331492</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3672268176.911942</v>
+        <v>3916528896.481692</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1089582555931873</v>
+        <v>0.1142635714845086</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01979041684373324</v>
+        <v>0.02276086913285405</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>60</v>
+      </c>
+      <c r="J27" t="n">
+        <v>151</v>
+      </c>
+      <c r="K27" t="n">
+        <v>110.9300638824053</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2793856613.422943</v>
+        <v>2559761397.773786</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1137665120147085</v>
+        <v>0.1463002894721908</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03864936172547415</v>
+        <v>0.04003832732027838</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4938829555.12604</v>
+        <v>5536019184.30248</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1229424171844667</v>
+        <v>0.1431707496693763</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02922737644727135</v>
+        <v>0.03761408626146756</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>141</v>
+      </c>
+      <c r="J29" t="n">
+        <v>152</v>
+      </c>
+      <c r="K29" t="n">
+        <v>161.3141081044962</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1836477763.312541</v>
+        <v>1455542701.909225</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1269804645215999</v>
+        <v>0.134182747556294</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03377555955670337</v>
+        <v>0.02810658042683508</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1058690466.124877</v>
+        <v>1347271267.045209</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1029570950053116</v>
+        <v>0.09933723767658889</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03887257845328066</v>
+        <v>0.03941653956702374</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1457233334.151421</v>
+        <v>1738038262.146809</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1208643570404719</v>
+        <v>0.07760302515050869</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03719393646109799</v>
+        <v>0.03072673676709016</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2326573152.40803</v>
+        <v>2020919727.522414</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1440538721211764</v>
+        <v>0.1639022754565512</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05062720719346589</v>
+        <v>0.04274304094850505</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1322385414.005197</v>
+        <v>1299084932.831286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09114015303280501</v>
+        <v>0.0812559798870339</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02231645536890146</v>
+        <v>0.02267666961078096</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>922629575.6408129</v>
+        <v>951198368.4450908</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07878979655038518</v>
+        <v>0.1129445658442846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0416298426257611</v>
+        <v>0.03904312491075359</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2942538531.266711</v>
+        <v>2070000519.512544</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1787508194493038</v>
+        <v>0.1168572328010323</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02470563757079202</v>
+        <v>0.02798906991426466</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2317474614.482097</v>
+        <v>2834839756.478676</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09677564047514227</v>
+        <v>0.08877991867118289</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02752486608125318</v>
+        <v>0.0295910603151819</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1881414406.541595</v>
+        <v>1890874428.675456</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1200547058781192</v>
+        <v>0.08736672626208249</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03089778478588961</v>
+        <v>0.0368669559456936</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1558024761.637577</v>
+        <v>1601427409.788781</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1766316660799844</v>
+        <v>0.1248843438128003</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02548566132594769</v>
+        <v>0.02516687387662548</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1219019401.286109</v>
+        <v>1570871502.287291</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1613241283681152</v>
+        <v>0.1274834399716378</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05230463754590241</v>
+        <v>0.03941793366920135</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1851559798.708237</v>
+        <v>2261958651.413899</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1565368571113206</v>
+        <v>0.1599272496478797</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02991170795200469</v>
+        <v>0.03833642103725771</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3570038544.029979</v>
+        <v>3769308058.960145</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08552773526277646</v>
+        <v>0.1134529916152806</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04615037103187321</v>
+        <v>0.0304317617229175</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>55</v>
+      </c>
+      <c r="J42" t="n">
+        <v>152</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2541069032.117045</v>
+        <v>2343958628.883828</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1988689602342822</v>
+        <v>0.1781903023177846</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02237349172760385</v>
+        <v>0.01790434800142567</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1755562515.481455</v>
+        <v>1776799308.837903</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1016553430794274</v>
+        <v>0.07046377154635623</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02673124138923183</v>
+        <v>0.02481791975797827</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1766630141.889259</v>
+        <v>1944286088.528124</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1298161284287204</v>
+        <v>0.1190296582349739</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04611287487245929</v>
+        <v>0.04940972142924663</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5526411339.209794</v>
+        <v>4544908988.941592</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1503746273403479</v>
+        <v>0.1181277865612564</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0459968874950149</v>
+        <v>0.05225208827268081</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>86</v>
+      </c>
+      <c r="J46" t="n">
+        <v>151</v>
+      </c>
+      <c r="K46" t="n">
+        <v>139.9057128795664</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3181964603.435839</v>
+        <v>4851176499.811549</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1793367169325634</v>
+        <v>0.2037404627283326</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05971589695728729</v>
+        <v>0.05168206709002251</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>67</v>
+      </c>
+      <c r="J47" t="n">
+        <v>152</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2921441612.584942</v>
+        <v>4033192246.545514</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08314597426058137</v>
+        <v>0.09381832059086188</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03567878696534994</v>
+        <v>0.02928823469487796</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>66</v>
+      </c>
+      <c r="J48" t="n">
+        <v>152</v>
+      </c>
+      <c r="K48" t="n">
+        <v>140.3907671631198</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291001931.911896</v>
+        <v>1601004329.509932</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1719963476829345</v>
+        <v>0.1371934040985338</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0419709818547952</v>
+        <v>0.02941812498949446</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4139298290.493446</v>
+        <v>3450994558.215041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1234071627699444</v>
+        <v>0.1219723540762255</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04665150043149502</v>
+        <v>0.03278977505512955</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>152</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1369416214.019001</v>
+        <v>1277137879.839449</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1385663033439983</v>
+        <v>0.1396006598765066</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03650220426872974</v>
+        <v>0.04278516924454514</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3691476585.720108</v>
+        <v>5114831379.335769</v>
       </c>
       <c r="F52" t="n">
-        <v>0.123820594786011</v>
+        <v>0.1269447999802201</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04010000667420914</v>
+        <v>0.05005778199624623</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>112</v>
+      </c>
+      <c r="J52" t="n">
+        <v>151</v>
+      </c>
+      <c r="K52" t="n">
+        <v>138.7388175488377</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2498519728.476416</v>
+        <v>3334968958.627707</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1763298833707806</v>
+        <v>0.1932611805087866</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02552207040948842</v>
+        <v>0.03156129638738315</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="n">
+        <v>87.43039642912993</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4719538103.892722</v>
+        <v>4963566953.690195</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1572939435386204</v>
+        <v>0.1219171858578699</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03384864965617646</v>
+        <v>0.03635678101476787</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>72</v>
+      </c>
+      <c r="J54" t="n">
+        <v>152</v>
+      </c>
+      <c r="K54" t="n">
+        <v>140.3530901405667</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4294467281.207615</v>
+        <v>4388921819.28462</v>
       </c>
       <c r="F55" t="n">
-        <v>0.194513429414313</v>
+        <v>0.1379648979995417</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03167165371254582</v>
+        <v>0.02645447616263571</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>69</v>
+      </c>
+      <c r="J55" t="n">
+        <v>152</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1292029677.469076</v>
+        <v>1146689946.47537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1305987945317107</v>
+        <v>0.1390825539952697</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05833632797235387</v>
+        <v>0.0373954727459345</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3863960800.52496</v>
+        <v>3433816238.064301</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1164574261347269</v>
+        <v>0.1212066137108853</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01991190959756442</v>
+        <v>0.02254559122826192</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>62</v>
+      </c>
+      <c r="J57" t="n">
+        <v>151</v>
+      </c>
+      <c r="K57" t="n">
+        <v>96.12330893591539</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1756923528.697066</v>
+        <v>1536279744.977337</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1530489623604851</v>
+        <v>0.1380658695788861</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03939579091520633</v>
+        <v>0.03400174749926538</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2520,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3735799161.221262</v>
+        <v>5052552180.858063</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1017903929829454</v>
+        <v>0.1135516774656615</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04354755924298542</v>
+        <v>0.03822040120732284</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>74</v>
+      </c>
+      <c r="J59" t="n">
+        <v>151</v>
+      </c>
+      <c r="K59" t="n">
+        <v>128.1103829216747</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2559987497.508357</v>
+        <v>3416221047.36452</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1739022036253167</v>
+        <v>0.129302598424266</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02257766083453357</v>
+        <v>0.02692004160208639</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2642162118.109567</v>
+        <v>2239284991.323448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1781945833031316</v>
+        <v>0.1100107751307131</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02897128760690774</v>
+        <v>0.03310136945518176</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1285546588.50067</v>
+        <v>1968036880.209319</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1931651150151633</v>
+        <v>0.1458310374979317</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03456754213053371</v>
+        <v>0.03925020533330082</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4875921225.44028</v>
+        <v>3964510523.710062</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09351528427050232</v>
+        <v>0.09557216004643225</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04482506794396482</v>
+        <v>0.03999261589969775</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>74</v>
+      </c>
+      <c r="J63" t="n">
+        <v>152</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5358864372.550569</v>
+        <v>5356526285.433641</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228420656717037</v>
+        <v>0.1777312207861248</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02936085812180125</v>
+        <v>0.0333105879877648</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>152</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5938494042.738256</v>
+        <v>5486730245.58338</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1303886000563974</v>
+        <v>0.1193154570910112</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02278395049386159</v>
+        <v>0.02418876465990081</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>126</v>
+      </c>
+      <c r="J65" t="n">
+        <v>151</v>
+      </c>
+      <c r="K65" t="n">
+        <v>140.0288014516596</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4290125509.098381</v>
+        <v>4747438537.920561</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1487850004896376</v>
+        <v>0.1374997183902265</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03806641046263696</v>
+        <v>0.04677056081258908</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>151</v>
+      </c>
+      <c r="K66" t="n">
+        <v>127.4293129571749</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2917590218.714211</v>
+        <v>2294090180.460917</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06850221840473195</v>
+        <v>0.07612724021448064</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03886214056136659</v>
+        <v>0.03975152179887899</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5212226293.650769</v>
+        <v>5520249602.618464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1524378585333498</v>
+        <v>0.1319317011055095</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03918849252052507</v>
+        <v>0.0411544787437423</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>76</v>
+      </c>
+      <c r="J68" t="n">
+        <v>152</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2313046132.884199</v>
+        <v>2114532827.296097</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1476312861515258</v>
+        <v>0.1326581445106693</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0494103403170508</v>
+        <v>0.04481489443663505</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2337539689.042381</v>
+        <v>2782986910.922676</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07324668691430866</v>
+        <v>0.07984407773736991</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03250618242982282</v>
+        <v>0.03193912571776818</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4734158036.192715</v>
+        <v>5533533536.0485</v>
       </c>
       <c r="F71" t="n">
-        <v>0.129970426868384</v>
+        <v>0.1304474200599674</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02274207450761206</v>
+        <v>0.02755955881045698</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>120</v>
+      </c>
+      <c r="J71" t="n">
+        <v>152</v>
+      </c>
+      <c r="K71" t="n">
+        <v>140.7443812901233</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1583549062.419506</v>
+        <v>1503930966.603655</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1035229061476683</v>
+        <v>0.1071362322251101</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05299702702901385</v>
+        <v>0.03997300598850063</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2482217043.472116</v>
+        <v>2441319041.625562</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08936241038637405</v>
+        <v>0.08098708119058307</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03645168897192495</v>
+        <v>0.03369510648397777</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2642462823.80753</v>
+        <v>2680152986.054677</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1498347518329681</v>
+        <v>0.1537737271488117</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02783005586475457</v>
+        <v>0.02809543925168496</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2241832826.177927</v>
+        <v>2032834867.014239</v>
       </c>
       <c r="F75" t="n">
-        <v>0.125049215277592</v>
+        <v>0.1564591418225021</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03796622735677676</v>
+        <v>0.03022196250519963</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3354301719.604979</v>
+        <v>4735141117.548084</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08034958158166181</v>
+        <v>0.1226363846887421</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02363561973620055</v>
+        <v>0.03289239980117775</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>69</v>
+      </c>
+      <c r="J76" t="n">
+        <v>152</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1686313896.802713</v>
+        <v>2299902667.115963</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1361957410598124</v>
+        <v>0.1256681490058951</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02699026621280023</v>
+        <v>0.01918540597272475</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3848209193.291411</v>
+        <v>3753701689.629993</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1052034295447192</v>
+        <v>0.1051614024571599</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04293155186989243</v>
+        <v>0.03540000729697335</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>76</v>
+      </c>
+      <c r="J78" t="n">
+        <v>152</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1161560960.438159</v>
+        <v>1267753706.902125</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1473474343479012</v>
+        <v>0.1662024995705654</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03573996378265222</v>
+        <v>0.03633086149091975</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4656964723.346812</v>
+        <v>3740216735.501449</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09452953753116318</v>
+        <v>0.07537513438952773</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02526893743486383</v>
+        <v>0.03688333317658635</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>74</v>
+      </c>
+      <c r="J80" t="n">
+        <v>151</v>
+      </c>
+      <c r="K80" t="n">
+        <v>88.30560487538209</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3688728481.786711</v>
+        <v>3755548144.612375</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1262543308345184</v>
+        <v>0.1127318256698378</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0288702906894121</v>
+        <v>0.02866504883101959</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>69</v>
+      </c>
+      <c r="J81" t="n">
+        <v>152</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4201824556.302182</v>
+        <v>4648456903.056456</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1915949375060673</v>
+        <v>0.2003657570481854</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02733084983791333</v>
+        <v>0.02546258839161492</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>110</v>
+      </c>
+      <c r="J82" t="n">
+        <v>152</v>
+      </c>
+      <c r="K82" t="n">
+        <v>147.6100062871839</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2274765471.375649</v>
+        <v>1830559934.264474</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1019251004405232</v>
+        <v>0.1319639494094525</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03526427766118193</v>
+        <v>0.03441319352291816</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1806495631.032598</v>
+        <v>2147025319.032922</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08021997287384666</v>
+        <v>0.08897469645187422</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03458403713846935</v>
+        <v>0.05230719503287985</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2784528375.148954</v>
+        <v>2535279149.299022</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1457889738973507</v>
+        <v>0.1155333986471961</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04427526244693009</v>
+        <v>0.04864709546936692</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2431617427.112903</v>
+        <v>2054864481.26392</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1618381355897296</v>
+        <v>0.1327402953867885</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01658053860894215</v>
+        <v>0.02703852266324594</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1404048469.269823</v>
+        <v>1236999086.258317</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1633820847783691</v>
+        <v>0.138432880067638</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02797721206730971</v>
+        <v>0.03390801880494169</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3552175304.518869</v>
+        <v>2577471930.243461</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1238186560516296</v>
+        <v>0.1219523041061353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03522023428941201</v>
+        <v>0.03144568651842818</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21</v>
+      </c>
+      <c r="J88" t="n">
+        <v>151</v>
+      </c>
+      <c r="K88" t="n">
+        <v>60.06037934942985</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2651463935.696564</v>
+        <v>3467271698.967631</v>
       </c>
       <c r="F89" t="n">
-        <v>0.160059920548474</v>
+        <v>0.1344427410069857</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02665765610518101</v>
+        <v>0.03897628022045252</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2042779996.716099</v>
+        <v>1820676473.238604</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1067212242034807</v>
+        <v>0.09249224009741067</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03525055466765111</v>
+        <v>0.04846955862135495</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1483439056.943067</v>
+        <v>1518212791.228805</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1226545879633119</v>
+        <v>0.1779663250108987</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04363913192918027</v>
+        <v>0.04682061264408131</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2180221291.107745</v>
+        <v>2677028911.93609</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07091817016724997</v>
+        <v>0.07758668826545977</v>
       </c>
       <c r="G92" t="n">
-        <v>0.042475903086622</v>
+        <v>0.03637407590355297</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3085421640.648359</v>
+        <v>4524720987.414461</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1371317355989358</v>
+        <v>0.1401668122829588</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04722532812857506</v>
+        <v>0.05455670292415887</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>68</v>
+      </c>
+      <c r="J93" t="n">
+        <v>152</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2335069772.803612</v>
+        <v>1841227218.702751</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1493488224995709</v>
+        <v>0.1089197037006037</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03083610123233354</v>
+        <v>0.03056890846696841</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3053205838.937121</v>
+        <v>3001438592.902314</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1275490859507526</v>
+        <v>0.1365516719731719</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05284692248594576</v>
+        <v>0.0352022714302971</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1670472317.40978</v>
+        <v>1650737687.555015</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1229174724577534</v>
+        <v>0.09287276787287878</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02877976573210407</v>
+        <v>0.04134894971061059</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5351209642.816211</v>
+        <v>3613041002.048347</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1236936431820461</v>
+        <v>0.1683546274405262</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02429778435682288</v>
+        <v>0.02000143488822812</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>73</v>
+      </c>
+      <c r="J97" t="n">
+        <v>151</v>
+      </c>
+      <c r="K97" t="n">
+        <v>108.4698439120952</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2947249100.713297</v>
+        <v>2536038426.530783</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1255465085441884</v>
+        <v>0.1295561083288654</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03218382438330514</v>
+        <v>0.02555127310155493</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2160293092.747763</v>
+        <v>3385414211.223582</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1210688389878461</v>
+        <v>0.1408926729475278</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03091777584757138</v>
+        <v>0.03509201589926519</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3218942877.347921</v>
+        <v>2966947875.50133</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1642151028451262</v>
+        <v>0.1094671611616113</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01898336113232123</v>
+        <v>0.01829305564583505</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>63</v>
+      </c>
+      <c r="J100" t="n">
+        <v>150</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2525038456.201799</v>
+        <v>3000923278.536325</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1867990929309744</v>
+        <v>0.2166085135799231</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05158991427785851</v>
+        <v>0.04561365541200019</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
